--- a/Measurements/Test 4 - Chair obstacle VamiaV0/Measuremets4.xlsx
+++ b/Measurements/Test 4 - Chair obstacle VamiaV0/Measuremets4.xlsx
@@ -1,37 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\code\SerialReading\Measurements\Test 4 - Chair obstacle VamiaV0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B64CB3E-B59E-45BF-BA14-EDF5A01D3589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>measure 1</t>
+  </si>
+  <si>
+    <t>measure 2</t>
+  </si>
+  <si>
+    <t>measure 3</t>
+  </si>
+  <si>
+    <t>measure 4</t>
+  </si>
+  <si>
+    <t>measure 5</t>
+  </si>
+  <si>
+    <t>measure 6</t>
+  </si>
+  <si>
+    <t>measure 7</t>
+  </si>
+  <si>
+    <t>measure 8</t>
+  </si>
+  <si>
+    <t>measure 9</t>
+  </si>
+  <si>
+    <t>measure 10</t>
+  </si>
+  <si>
+    <t>measure 11</t>
+  </si>
+  <si>
+    <t>measure 12</t>
+  </si>
+  <si>
+    <t>measure 13</t>
+  </si>
+  <si>
+    <t>measure 14</t>
+  </si>
+  <si>
+    <t>measure 15</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +113,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1094 +438,3577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>measure 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>measure 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>measure 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>measure 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>measure 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>measure 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>measure 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>measure 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>measure 9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>measure 10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>measure 11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>measure 12</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>measure 13</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>measure 14</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>measure 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-40</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>-43</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-41</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-39</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-42</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-40</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>-43</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>-39</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>-38</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>-42</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>-40</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>-38</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>-41</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>-39</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>-38</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="S2">
+        <f>-B2</f>
+        <v>40</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2:AC17" si="0">-C2</f>
+        <v>43</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AD2">
+        <f>-M2</f>
+        <v>38</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" ref="AE2:AE21" si="1">-N2</f>
+        <v>41</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AF21" si="2">-O2</f>
+        <v>39</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" ref="AG2:AG21" si="3">-P2</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>20</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-50</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>-45</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-47</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-41</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-45</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-47</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-44</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-50</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>-44</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>-43</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>-47</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>-47</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>-43</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>-51</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>-48</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="S3">
+        <f t="shared" ref="S3:S21" si="4">-B3</f>
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD21" si="5">-M3</f>
+        <v>47</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>40</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-40</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-40</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-44</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-39</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-43</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-39</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-40</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>-44</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>-39</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>-39</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>-43</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>-42</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>-40</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>-45</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>-40</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>60</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-63</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>-43</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-46</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-58</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-44</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-47</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>-58</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>-45</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>-47</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>-55</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>-43</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>-47</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>-58</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>-45</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>-45</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>80</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-47</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-48</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-48</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-46</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-48</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-46</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-47</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>-48</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>-47</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>-48</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>-50</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>-48</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>-47</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>-45</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>-47</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>100</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-50</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>-59</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-64</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-54</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-64</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-66</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>-53</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>-53</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>-62</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>-55</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>-53</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>-58</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>-54</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>-51</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>-54</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>120</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-55</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>-55</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-59</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-53</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-51</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-53</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>-57</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>-55</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>-56</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>-55</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>-55</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>-55</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>-55</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>-56</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>-56</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>140</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-63</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>-51</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-48</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-56</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-50</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-48</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-58</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>-50</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>-48</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>-58</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>-50</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>-48</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>-56</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>-49</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>-49</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>160</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-55</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>-54</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-55</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-53</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-54</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-61</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>-53</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>-53</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>-61</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>-53</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>-62</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>-51</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>-53</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>-62</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>-50</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>180</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-54</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>-52</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-52</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-61</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-53</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-54</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>-64</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>-51</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>-53</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>-65</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>-50</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>-53</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>-52</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>-53</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>-66</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>200</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-57</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>-53</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-58</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-55</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-51</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-58</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>-54</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>-61</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>-54</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>-53</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>-52</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>-59</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>-55</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>-51</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>-59</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>240</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-57</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>-55</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-59</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-55</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-56</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-53</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>-53</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-57</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>-53</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>-55</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>-60</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>-56</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>-53</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>-59</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>-57</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>280</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-60</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>-51</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-52</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-61</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-50</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-52</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>-59</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-52</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>-52</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>-59</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>-52</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-53</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>-59</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>-51</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>-53</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>320</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-60</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>-52</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-50</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-51</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-60</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-51</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-51</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>-59</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>-51</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>-50</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>-59</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>-52</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>-50</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>-58</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>-52</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>360</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-58</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>-53</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-50</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-57</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-55</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-50</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-57</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>-54</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>-50</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>-58</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>-54</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>-50</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>-58</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>-54</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>-50</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>400</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-61</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>-60</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-53</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-61</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-59</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-51</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>-60</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>-59</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>-53</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>-58</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>-58</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>-52</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>-59</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>-58</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>-61</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>440</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-53</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>-69</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-63</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-56</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-66</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-66</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>-54</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>-67</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>-67</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>-66</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>-67</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>-63</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>-65</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>-53</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>-64</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:T21" si="6">-C18</f>
+        <v>69</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U21" si="7">-D18</f>
+        <v>63</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:V21" si="8">-E18</f>
+        <v>56</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W21" si="9">-F18</f>
+        <v>66</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X21" si="10">-G18</f>
+        <v>66</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18:Y21" si="11">-H18</f>
+        <v>54</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ref="Z18:Z21" si="12">-I18</f>
+        <v>67</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" ref="AA18:AA21" si="13">-J18</f>
+        <v>67</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AB21" si="14">-K18</f>
+        <v>66</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ref="AC18:AC21" si="15">-L18</f>
+        <v>67</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>480</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-59</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>-63</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-56</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-63</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-59</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-59</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-67</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>-56</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-56</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>-55</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>-65</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>-55</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>-58</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>-70</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>-58</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="14"/>
+        <v>55</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>520</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-54</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>-58</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-58</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-54</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-59</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-58</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>-55</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>-60</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>-56</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>-54</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>-60</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>-56</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>-54</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>-59</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>-56</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="10"/>
+        <v>58</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="13"/>
+        <v>56</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>560</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-68</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>-62</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-76</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-66</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-63</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-75</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>-64</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>-62</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>-76</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>-68</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>-65</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>-71</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>-67</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>-63</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>-70</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="14"/>
+        <v>68</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <f>POWER(10,(-B2-$B$23)/(10*$C$23))*100</f>
+        <v>13.111339374215644</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:P24" si="16">POWER(10,(-C2-$B$23)/(10*$C$23))*100</f>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="16"/>
+        <v>15.013107289081734</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="16"/>
+        <v>11.450475699382817</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="16"/>
+        <v>17.190722018585742</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="16"/>
+        <v>13.111339374215644</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="16"/>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="16"/>
+        <v>11.450475699382817</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="16"/>
+        <v>17.190722018585742</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="16"/>
+        <v>13.111339374215644</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="16"/>
+        <v>15.013107289081734</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="16"/>
+        <v>11.450475699382817</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" ref="B25:P25" si="17">POWER(10,(-B3-$B$23)/(10*$C$23))*100</f>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="17"/>
+        <v>25.808615404180745</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="17"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="17"/>
+        <v>15.013107289081734</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="17"/>
+        <v>25.808615404180745</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="17"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="17"/>
+        <v>22.539339047347902</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="17"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="17"/>
+        <v>22.539339047347902</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="17"/>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="17"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="17"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="17"/>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="17"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="17"/>
+        <v>38.746751204561306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" ref="B26:P26" si="18">POWER(10,(-B4-$B$23)/(10*$C$23))*100</f>
+        <v>13.111339374215644</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="18"/>
+        <v>13.111339374215644</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="18"/>
+        <v>22.539339047347902</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="18"/>
+        <v>11.450475699382817</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="18"/>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="18"/>
+        <v>11.450475699382817</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="18"/>
+        <v>13.111339374215644</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="18"/>
+        <v>22.539339047347902</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="18"/>
+        <v>11.450475699382817</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="18"/>
+        <v>11.450475699382817</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="18"/>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="18"/>
+        <v>17.190722018585742</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="18"/>
+        <v>13.111339374215644</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="18"/>
+        <v>25.808615404180745</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="18"/>
+        <v>13.111339374215644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:P27" si="19">POWER(10,(-B5-$B$23)/(10*$C$23))*100</f>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="19"/>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="19"/>
+        <v>29.552092352028868</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="19"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="19"/>
+        <v>22.539339047347902</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="19"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="19"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="19"/>
+        <v>25.808615404180745</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="19"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="19"/>
+        <v>100</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="19"/>
+        <v>19.684194472866118</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="19"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="19"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="19"/>
+        <v>25.808615404180745</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="19"/>
+        <v>25.808615404180745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ref="B28:P28" si="20">POWER(10,(-B6-$B$23)/(10*$C$23))*100</f>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="20"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="20"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="20"/>
+        <v>29.552092352028868</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="20"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="20"/>
+        <v>29.552092352028868</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="20"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="20"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="20"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="20"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="20"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="20"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="N28" s="2">
+        <f t="shared" si="20"/>
+        <v>33.838551534282338</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="20"/>
+        <v>25.808615404180745</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="20"/>
+        <v>33.838551534282338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" ref="B29:P29" si="21">POWER(10,(-B7-$B$23)/(10*$C$23))*100</f>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="21"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="21"/>
+        <v>338.38551534282345</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="21"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="21"/>
+        <v>338.38551534282345</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="21"/>
+        <v>443.66873309786132</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="21"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="21"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="21"/>
+        <v>258.0861540418075</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="21"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="21"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" si="21"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="21"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="21"/>
+        <v>87.332616238284317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ref="B30:P30" si="22">POWER(10,(-B8-$B$23)/(10*$C$23))*100</f>
+        <v>100</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="22"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="22"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="22"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="22"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="22"/>
+        <v>131.11339374215643</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="22"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="22"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="22"/>
+        <v>114.50475699382818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>140</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ref="B31:P31" si="23">POWER(10,(-B9-$B$23)/(10*$C$23))*100</f>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="23"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="23"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="23"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="23"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="23"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="23"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="23"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="23"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="23"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="23"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="23"/>
+        <v>38.746751204561306</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="23"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="23"/>
+        <v>44.366873309786115</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="23"/>
+        <v>44.366873309786115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>160</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ref="B32:P32" si="24">POWER(10,(-B10-$B$23)/(10*$C$23))*100</f>
+        <v>100</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="24"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="24"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="24"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="24"/>
+        <v>225.39339047347912</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="24"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="24"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="24"/>
+        <v>225.39339047347912</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="24"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="24"/>
+        <v>258.0861540418075</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="24"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="24"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="24"/>
+        <v>258.0861540418075</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="24"/>
+        <v>50.802180469130207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>180</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:P33" si="25">POWER(10,(-B11-$B$23)/(10*$C$23))*100</f>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="25"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="25"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="25"/>
+        <v>225.39339047347912</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="25"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="25"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="25"/>
+        <v>338.38551534282345</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="25"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="25"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="25"/>
+        <v>387.46751204561315</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="25"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="25"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="25"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="25"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="25"/>
+        <v>443.66873309786132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>200</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:P34" si="26">POWER(10,(-B12-$B$23)/(10*$C$23))*100</f>
+        <v>131.11339374215643</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="26"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="26"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="26"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="26"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="26"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="26"/>
+        <v>225.39339047347912</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="26"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="26"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="26"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="26"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="26"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="26"/>
+        <v>171.90722018585745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>240</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:P35" si="27">POWER(10,(-B13-$B$23)/(10*$C$23))*100</f>
+        <v>131.11339374215643</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="27"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="27"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="27"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="27"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="27"/>
+        <v>131.11339374215643</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="27"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="27"/>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="27"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="27"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="27"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="27"/>
+        <v>131.11339374215643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>280</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ref="B36:P36" si="28">POWER(10,(-B14-$B$23)/(10*$C$23))*100</f>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="28"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="28"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="28"/>
+        <v>225.39339047347912</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="28"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="28"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="28"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="28"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="28"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="28"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="28"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="28"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="28"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="28"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="28"/>
+        <v>76.269858590234435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>320</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ref="B37:P37" si="29">POWER(10,(-B15-$B$23)/(10*$C$23))*100</f>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="29"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="29"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="29"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="29"/>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="29"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="29"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="29"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="29"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="29"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="29"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="29"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="29"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="29"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="29"/>
+        <v>66.608462908091568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>360</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" ref="B38:P38" si="30">POWER(10,(-B16-$B$23)/(10*$C$23))*100</f>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="30"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="30"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="30"/>
+        <v>131.11339374215643</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="30"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="30"/>
+        <v>131.11339374215643</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="30"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="30"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="30"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="30"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="30"/>
+        <v>50.802180469130207</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" si="30"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="30"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="30"/>
+        <v>50.802180469130207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>400</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" ref="B39:P39" si="31">POWER(10,(-B17-$B$23)/(10*$C$23))*100</f>
+        <v>225.39339047347912</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="31"/>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="31"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="31"/>
+        <v>225.39339047347912</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="31"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="31"/>
+        <v>58.170913293743588</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="31"/>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="31"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="31"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="31"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="31"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="31"/>
+        <v>66.608462908091568</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="31"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="31"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="31"/>
+        <v>225.39339047347912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>440</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" ref="B40:P40" si="32">POWER(10,(-B18-$B$23)/(10*$C$23))*100</f>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="32"/>
+        <v>666.08462908091587</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="32"/>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="32"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="32"/>
+        <v>443.66873309786132</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="32"/>
+        <v>443.66873309786132</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="32"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="32"/>
+        <v>508.02180469130212</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="32"/>
+        <v>508.02180469130212</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="32"/>
+        <v>443.66873309786132</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="32"/>
+        <v>508.02180469130212</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="32"/>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="32"/>
+        <v>387.46751204561315</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="32"/>
+        <v>76.269858590234435</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="32"/>
+        <v>338.38551534282345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>480</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:P41" si="33">POWER(10,(-B19-$B$23)/(10*$C$23))*100</f>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="33"/>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="33"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="33"/>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="33"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="33"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="33"/>
+        <v>508.02180469130212</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="33"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="33"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="33"/>
+        <v>387.46751204561315</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="33"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="33"/>
+        <v>762.69858590234435</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="33"/>
+        <v>150.13107289081736</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>520</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ref="B42:P42" si="34">POWER(10,(-B20-$B$23)/(10*$C$23))*100</f>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="34"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="34"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="34"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="34"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="34"/>
+        <v>150.13107289081736</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="34"/>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="34"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="34"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="34"/>
+        <v>196.84194472866122</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="34"/>
+        <v>114.50475699382818</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="34"/>
+        <v>87.332616238284317</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="34"/>
+        <v>171.90722018585745</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="34"/>
+        <v>114.50475699382818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>560</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ref="B43:P43" si="35">POWER(10,(-B21-$B$23)/(10*$C$23))*100</f>
+        <v>581.70913293743592</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="35"/>
+        <v>258.0861540418075</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="35"/>
+        <v>1719.072201858575</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="35"/>
+        <v>443.66873309786132</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="35"/>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="35"/>
+        <v>1501.3107289081736</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="35"/>
+        <v>338.38551534282345</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="35"/>
+        <v>258.0861540418075</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="35"/>
+        <v>1719.072201858575</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="35"/>
+        <v>581.70913293743592</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="35"/>
+        <v>387.46751204561315</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="35"/>
+        <v>873.32616238284334</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="35"/>
+        <v>508.02180469130212</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="35"/>
+        <v>295.52092352028876</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="35"/>
+        <v>762.69858590234435</v>
       </c>
     </row>
   </sheetData>
